--- a/src/main/resources/经营测试数据.xlsx
+++ b/src/main/resources/经营测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA7DB6-F652-42A2-8762-E6F80366856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106D510-1B1D-47DA-9A81-5BEB2A5181D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1290" windowWidth="21105" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>日期</t>
   </si>
@@ -38,16 +38,13 @@
   <si>
     <t>利润（元）</t>
   </si>
-  <si>
-    <t>市场份额（%）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -119,9 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -129,9 +126,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -414,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,10 +420,9 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,11 +435,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45047</v>
       </c>
@@ -459,11 +449,8 @@
       <c r="D2" s="4">
         <v>40000</v>
       </c>
-      <c r="E2" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45048</v>
       </c>
@@ -476,11 +463,8 @@
       <c r="D3" s="4">
         <v>33000</v>
       </c>
-      <c r="E3" s="5">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45049</v>
       </c>
@@ -493,11 +477,8 @@
       <c r="D4" s="4">
         <v>26000</v>
       </c>
-      <c r="E4" s="5">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45050</v>
       </c>
@@ -510,11 +491,8 @@
       <c r="D5" s="4">
         <v>34000</v>
       </c>
-      <c r="E5" s="5">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45051</v>
       </c>
@@ -527,11 +505,8 @@
       <c r="D6" s="4">
         <v>35000</v>
       </c>
-      <c r="E6" s="5">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45052</v>
       </c>
@@ -544,11 +519,8 @@
       <c r="D7" s="4">
         <v>28000</v>
       </c>
-      <c r="E7" s="5">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45053</v>
       </c>
@@ -561,11 +533,8 @@
       <c r="D8" s="4">
         <v>36000</v>
       </c>
-      <c r="E8" s="5">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45054</v>
       </c>
@@ -578,11 +547,8 @@
       <c r="D9" s="4">
         <v>41000</v>
       </c>
-      <c r="E9" s="5">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45055</v>
       </c>
@@ -595,11 +561,8 @@
       <c r="D10" s="4">
         <v>33000</v>
       </c>
-      <c r="E10" s="5">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45056</v>
       </c>
@@ -612,11 +575,8 @@
       <c r="D11" s="4">
         <v>41000</v>
       </c>
-      <c r="E11" s="5">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45057</v>
       </c>
@@ -629,11 +589,8 @@
       <c r="D12" s="4">
         <v>33000</v>
       </c>
-      <c r="E12" s="5">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45058</v>
       </c>
@@ -646,11 +603,8 @@
       <c r="D13" s="4">
         <v>27000</v>
       </c>
-      <c r="E13" s="5">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45059</v>
       </c>
@@ -663,11 +617,8 @@
       <c r="D14" s="4">
         <v>33000</v>
       </c>
-      <c r="E14" s="5">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45060</v>
       </c>
@@ -680,11 +631,8 @@
       <c r="D15" s="4">
         <v>32000</v>
       </c>
-      <c r="E15" s="5">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45061</v>
       </c>
@@ -697,11 +645,8 @@
       <c r="D16" s="4">
         <v>40000</v>
       </c>
-      <c r="E16" s="5">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45062</v>
       </c>
@@ -714,11 +659,8 @@
       <c r="D17" s="4">
         <v>39000</v>
       </c>
-      <c r="E17" s="5">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45063</v>
       </c>
@@ -731,11 +673,8 @@
       <c r="D18" s="4">
         <v>33000</v>
       </c>
-      <c r="E18" s="5">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45064</v>
       </c>
@@ -748,11 +687,8 @@
       <c r="D19" s="4">
         <v>35000</v>
       </c>
-      <c r="E19" s="5">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45065</v>
       </c>
@@ -765,11 +701,8 @@
       <c r="D20" s="4">
         <v>31000</v>
       </c>
-      <c r="E20" s="5">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45066</v>
       </c>
@@ -782,11 +715,8 @@
       <c r="D21" s="4">
         <v>38000</v>
       </c>
-      <c r="E21" s="5">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -799,11 +729,8 @@
       <c r="D22" s="4">
         <v>39000</v>
       </c>
-      <c r="E22" s="5">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45068</v>
       </c>
@@ -816,11 +743,8 @@
       <c r="D23" s="4">
         <v>34000</v>
       </c>
-      <c r="E23" s="5">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45069</v>
       </c>
@@ -833,11 +757,8 @@
       <c r="D24" s="4">
         <v>36000</v>
       </c>
-      <c r="E24" s="5">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45070</v>
       </c>
@@ -850,11 +771,8 @@
       <c r="D25" s="4">
         <v>29000</v>
       </c>
-      <c r="E25" s="5">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45071</v>
       </c>
@@ -867,11 +785,8 @@
       <c r="D26" s="4">
         <v>39000</v>
       </c>
-      <c r="E26" s="5">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45072</v>
       </c>
@@ -884,11 +799,8 @@
       <c r="D27" s="4">
         <v>36000</v>
       </c>
-      <c r="E27" s="5">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45073</v>
       </c>
@@ -900,383 +812,6 @@
       </c>
       <c r="D28" s="4">
         <v>38000</v>
-      </c>
-      <c r="E28" s="5">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="4">
-        <v>116000</v>
-      </c>
-      <c r="C29" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D29" s="4">
-        <v>36000</v>
-      </c>
-      <c r="E29" s="5">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="4">
-        <v>91000</v>
-      </c>
-      <c r="C30" s="4">
-        <v>55000</v>
-      </c>
-      <c r="D30" s="4">
-        <v>36000</v>
-      </c>
-      <c r="E30" s="5">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="4">
-        <v>106000</v>
-      </c>
-      <c r="C31" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D31" s="4">
-        <v>36000</v>
-      </c>
-      <c r="E31" s="5">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>45077</v>
-      </c>
-      <c r="B32" s="4">
-        <v>120000</v>
-      </c>
-      <c r="C32" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D32" s="4">
-        <v>40000</v>
-      </c>
-      <c r="E32" s="5">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>45078</v>
-      </c>
-      <c r="B33" s="4">
-        <v>98000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>65000</v>
-      </c>
-      <c r="D33" s="4">
-        <v>33000</v>
-      </c>
-      <c r="E33" s="5">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>45079</v>
-      </c>
-      <c r="B34" s="4">
-        <v>78000</v>
-      </c>
-      <c r="C34" s="4">
-        <v>52000</v>
-      </c>
-      <c r="D34" s="4">
-        <v>26000</v>
-      </c>
-      <c r="E34" s="5">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>45080</v>
-      </c>
-      <c r="B35" s="4">
-        <v>92000</v>
-      </c>
-      <c r="C35" s="4">
-        <v>58000</v>
-      </c>
-      <c r="D35" s="4">
-        <v>34000</v>
-      </c>
-      <c r="E35" s="5">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>45081</v>
-      </c>
-      <c r="B36" s="4">
-        <v>105000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D36" s="4">
-        <v>35000</v>
-      </c>
-      <c r="E36" s="5">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>45082</v>
-      </c>
-      <c r="B37" s="4">
-        <v>88000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D37" s="4">
-        <v>28000</v>
-      </c>
-      <c r="E37" s="5">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>45083</v>
-      </c>
-      <c r="B38" s="4">
-        <v>104000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>68000</v>
-      </c>
-      <c r="D38" s="4">
-        <v>36000</v>
-      </c>
-      <c r="E38" s="5">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>45084</v>
-      </c>
-      <c r="B39" s="4">
-        <v>123000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>82000</v>
-      </c>
-      <c r="D39" s="4">
-        <v>41000</v>
-      </c>
-      <c r="E39" s="5">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>45085</v>
-      </c>
-      <c r="B40" s="4">
-        <v>97000</v>
-      </c>
-      <c r="C40" s="4">
-        <v>64000</v>
-      </c>
-      <c r="D40" s="4">
-        <v>33000</v>
-      </c>
-      <c r="E40" s="5">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>45086</v>
-      </c>
-      <c r="B41" s="4">
-        <v>116000</v>
-      </c>
-      <c r="C41" s="4">
-        <v>75000</v>
-      </c>
-      <c r="D41" s="4">
-        <v>41000</v>
-      </c>
-      <c r="E41" s="5">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>45087</v>
-      </c>
-      <c r="B42" s="4">
-        <v>98000</v>
-      </c>
-      <c r="C42" s="4">
-        <v>65000</v>
-      </c>
-      <c r="D42" s="4">
-        <v>33000</v>
-      </c>
-      <c r="E42" s="5">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>45088</v>
-      </c>
-      <c r="B43" s="4">
-        <v>82000</v>
-      </c>
-      <c r="C43" s="4">
-        <v>55000</v>
-      </c>
-      <c r="D43" s="4">
-        <v>27000</v>
-      </c>
-      <c r="E43" s="5">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>45089</v>
-      </c>
-      <c r="B44" s="4">
-        <v>103000</v>
-      </c>
-      <c r="C44" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D44" s="4">
-        <v>33000</v>
-      </c>
-      <c r="E44" s="5">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>45090</v>
-      </c>
-      <c r="B45" s="4">
-        <v>92000</v>
-      </c>
-      <c r="C45" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D45" s="4">
-        <v>32000</v>
-      </c>
-      <c r="E45" s="5">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45091</v>
-      </c>
-      <c r="B46" s="4">
-        <v>118000</v>
-      </c>
-      <c r="C46" s="4">
-        <v>78000</v>
-      </c>
-      <c r="D46" s="4">
-        <v>40000</v>
-      </c>
-      <c r="E46" s="5">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B47" s="4">
-        <v>107000</v>
-      </c>
-      <c r="C47" s="4">
-        <v>68000</v>
-      </c>
-      <c r="D47" s="4">
-        <v>39000</v>
-      </c>
-      <c r="E47" s="5">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>45093</v>
-      </c>
-      <c r="B48" s="4">
-        <v>96000</v>
-      </c>
-      <c r="C48" s="4">
-        <v>63000</v>
-      </c>
-      <c r="D48" s="4">
-        <v>33000</v>
-      </c>
-      <c r="E48" s="5">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>45094</v>
-      </c>
-      <c r="B49" s="4">
-        <v>110000</v>
-      </c>
-      <c r="C49" s="4">
-        <v>75000</v>
-      </c>
-      <c r="D49" s="4">
-        <v>35000</v>
-      </c>
-      <c r="E49" s="5">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>45095</v>
-      </c>
-      <c r="B50" s="4">
-        <v>89000</v>
-      </c>
-      <c r="C50" s="4">
-        <v>58000</v>
-      </c>
-      <c r="D50" s="4">
-        <v>31000</v>
-      </c>
-      <c r="E50" s="5">
-        <v>18.899999999999999</v>
       </c>
     </row>
   </sheetData>
